--- a/ドキュメント/マニュアル/【ユーザ情報DB】現地導入手順書.xlsx
+++ b/ドキュメント/マニュアル/【ユーザ情報DB】現地導入手順書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\05_人事情報\70_納品\05_マニュアル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Sns21001\si_jointdev2\05_人事情報\70_納品\05_マニュアル\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15810" yWindow="0" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="16740" yWindow="0" windowWidth="19200" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル構築" sheetId="3" r:id="rId1"/>
@@ -450,17 +450,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(1)テーブルを作成
-　スクリプトファイル「crear_tabla_goguchi_administración.sql」を実行</t>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(1)DBサーバにD:\ImportCSVを作成
 (2)左記のCSV取込ツールファイル①～⑩を配置</t>
     <rPh sb="22" eb="24">
@@ -642,6 +631,17 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)テーブルを作成
+　スクリプトファイル「crear_tabla_admin.sql」を実行</t>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -933,6 +933,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -948,20 +954,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1255,7 +1255,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1268,32 +1268,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -1301,10 +1301,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1313,16 +1313,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1337,9 +1337,9 @@
         <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       <c r="D7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       <c r="D8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1385,9 +1385,9 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1400,12 +1400,12 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1421,9 +1421,9 @@
         <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1439,9 +1439,9 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1454,12 +1454,12 @@
         <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1475,9 +1475,9 @@
         <v>24</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1493,9 +1493,9 @@
         <v>25</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>26</v>
       </c>
     </row>
